--- a/Banco Central/5/6/2/1/1/1 año 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/2/1/1/1 año 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Serie</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,6 +502,17 @@
         <v>1.9</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/5/6/2/1/1/1 año 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/2/1/1/1 año 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Serie</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
   </si>
 </sst>
 </file>
@@ -404,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,6 +519,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>8000</v>
+      </c>
+      <c r="D7">
+        <v>8000</v>
+      </c>
+      <c r="E7">
+        <v>7000</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>2.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
